--- a/conf/TEMPLATE - SIPP Interest in land or property from a connected party.xlsx
+++ b/conf/TEMPLATE - SIPP Interest in land or property from a connected party.xlsx
@@ -153,7 +153,7 @@
     <t>Is there a Land Registry reference in respect of the land or property?</t>
   </si>
   <si>
-    <t>If no Land Registry reference, enter reason</t>
+    <t>If 'yes' enter Land registry reference number. If 'no' enter a reason for not having a Land registry reference.</t>
   </si>
   <si>
     <t>Who was the land or property acquired from?</t>
@@ -329,11 +329,11 @@
   </si>
   <si>
     <t>Enter YES or N0.
-If No - provide reason
 Mandatory question if any interest in land or property transactions have taken place within the tax year.</t>
   </si>
   <si>
-    <t>Max of 160 characters</t>
+    <t>Max of 160 characters
+Mandatory question if any interest in land or property transactions have taken place within the tax year.</t>
   </si>
   <si>
     <t>Enter name.
@@ -884,7 +884,7 @@
       <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -1038,7 +1038,7 @@
       <c r="T2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="V2" s="17" t="s">
